--- a/vendor/204-to-221.xlsx
+++ b/vendor/204-to-221.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Desktop\SONAAC\vendor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="287">
   <si>
     <t>Not-available@204</t>
   </si>
@@ -840,6 +840,51 @@
   </si>
   <si>
     <t>"10:00 AM"</t>
+  </si>
+  <si>
+    <t>model_no</t>
+  </si>
+  <si>
+    <t>registration_no</t>
+  </si>
+  <si>
+    <t>name(vehicle_name)</t>
+  </si>
+  <si>
+    <t>vehicle_number</t>
+  </si>
+  <si>
+    <t>bus_type</t>
+  </si>
+  <si>
+    <t>name(station_name)</t>
+  </si>
+  <si>
+    <t>arrival_time</t>
+  </si>
+  <si>
+    <t>departure_time</t>
+  </si>
+  <si>
+    <t>is_source</t>
+  </si>
+  <si>
+    <t>is_destination</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Fare</t>
+  </si>
+  <si>
+    <t>vehicle_type</t>
+  </si>
+  <si>
+    <t>Service No</t>
   </si>
 </sst>
 </file>
@@ -849,7 +894,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -892,6 +937,37 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -913,7 +989,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -954,13 +1030,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -986,8 +1074,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
     <cellStyle name="Explanatory Text 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
@@ -1270,13 +1370,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="A230" sqref="A230"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="O81" sqref="O81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>286</v>
+      </c>
+    </row>
     <row r="2" spans="1:15" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
@@ -4046,7 +4196,9 @@
       <c r="M79" s="5">
         <v>523</v>
       </c>
-      <c r="N79" s="5"/>
+      <c r="N79" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="O79" s="7">
         <v>603</v>
       </c>
@@ -4077,9 +4229,6 @@
       </c>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
-      <c r="N80" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="O80" s="7">
         <v>602</v>
       </c>
@@ -8993,5 +9142,6 @@
     <hyperlink ref="B203" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>